--- a/biology/Botanique/Plurifenestraceae/Plurifenestraceae.xlsx
+++ b/biology/Botanique/Plurifenestraceae/Plurifenestraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plurifenestraceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Coscinodiscophyceae et de l’ordre des Stictodiscales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Plurifenestra, dérivé du latin pluri-, plusieurs, et -fenestr, fenêtre, « en référence aux nombreuses aréoles en forme de fenêtre sur le manteau de la valve[1]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Plurifenestra, dérivé du latin pluri-, plusieurs, et -fenestr, fenêtre, « en référence aux nombreuses aréoles en forme de fenêtre sur le manteau de la valve. »
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre type, Plurifenestra, est décrit par Komura comme suit : 
-« Valves circulaires, en forme de disque ; face valvaire lisse ou ondulée concentriquement, finement aréolée ; manteau séparé de la face valvulaire, très grossièrement aréolé ; stries disposées en secteurs rayonnants au moins près de la marge ; ocelles ou épines en forme de griffes au bord de la valve[1]. »
-Le genre Unguiella[note 1] est décrit comme suit :« Valves en forme de disque ; face valvaire fragile, circulaire, finement fasciculée, aréolée avec rota vela[note 2] ; manteau peu profond, fortement silicifié avec des rangées bisériées de grandes aréoles, séparées en général de la face par une crête marginale ; épines en forme de griffe ou d'aile, deux à la marge avec des processus de liaison ; ceinture non visible[1]. »
-Note : le vocabulaire ci-dessus, spécifique aux diatomées, est explicité dans un glossaire des diatomées anglophone[2].
+« Valves circulaires, en forme de disque ; face valvaire lisse ou ondulée concentriquement, finement aréolée ; manteau séparé de la face valvulaire, très grossièrement aréolé ; stries disposées en secteurs rayonnants au moins près de la marge ; ocelles ou épines en forme de griffes au bord de la valve. »
+Le genre Unguiella[note 1] est décrit comme suit :« Valves en forme de disque ; face valvaire fragile, circulaire, finement fasciculée, aréolée avec rota vela[note 2] ; manteau peu profond, fortement silicifié avec des rangées bisériées de grandes aréoles, séparées en général de la face par une crête marginale ; épines en forme de griffe ou d'aile, deux à la marge avec des processus de liaison ; ceinture non visible. »
+Note : le vocabulaire ci-dessus, spécifique aux diatomées, est explicité dans un glossaire des diatomées anglophone.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est composée de diatomées marines fossiles découvertes dans des dépôts de l'étage Miocène dits « formations Nabuto » (Péninsule de Bōsō, Japon)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est composée de diatomées marines fossiles découvertes dans des dépôts de l'étage Miocène dits « formations Nabuto » (Péninsule de Bōsō, Japon).
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1er août 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1er août 2022) :
 Plurifenestra S.Komura, 1996 †
 Unguiella S.Komura, 1996 †</t>
         </is>
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Plurifenestraceae S.Kormura, 1996[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Plurifenestraceae S.Kormura, 1996.
 </t>
         </is>
       </c>
@@ -671,7 +693,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Komura, S. (1996). Some new diatoms from the Miocene Nabuto Formation, central Japan. Diatom 12:  43-67, 91 figs., 4 text-figs.</t>
         </is>
